--- a/Archivos de trabajo/Datos/Construcción socios comerciales/socios_expo.xlsx
+++ b/Archivos de trabajo/Datos/Construcción socios comerciales/socios_expo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/Datos/Construcción socios comerciales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AEFDB262-F85A-4503-9F9C-FB96FD9C40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C97CD1A-4E82-4E3D-972A-B43E0EE19AB2}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AEFDB262-F85A-4503-9F9C-FB96FD9C40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A01CF7-CBF8-4C60-B288-0EEEA421AD00}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top fob" sheetId="7" r:id="rId1"/>
@@ -859,7 +859,9 @@
   </sheetPr>
   <dimension ref="A1:HR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7391,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9886,10 +9888,10 @@
   <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10003,7 +10005,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="7">
-        <f t="shared" ref="C2:C25" si="0">SUM(D2:AF2)</f>
+        <f>SUM(D2:AF2)</f>
         <v>0.77087622753295992</v>
       </c>
       <c r="D2" s="4">
@@ -10131,7 +10133,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:C25" si="0">SUM(D3:AF3)</f>
         <v>0.78334929518237717</v>
       </c>
       <c r="D3" s="4">

--- a/Archivos de trabajo/Datos/Construcción socios comerciales/socios_expo.xlsx
+++ b/Archivos de trabajo/Datos/Construcción socios comerciales/socios_expo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AEFDB262-F85A-4503-9F9C-FB96FD9C40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A01CF7-CBF8-4C60-B288-0EEEA421AD00}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top fob" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,23 @@
     <sheet name="Part_peso" sheetId="5" r:id="rId5"/>
     <sheet name="SOCIOS COM" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,43 +68,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="85">
   <si>
-    <t>anio</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>Arabia Saudita</t>
   </si>
   <si>
     <t>Argelia</t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Corea Republicana</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
     <t>Egipto</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Malasia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Países Bajos</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Paquistán</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>República Federal de Alemania</t>
+  </si>
+  <si>
+    <t>Rusia</t>
   </si>
   <si>
     <t>Sudáfrica</t>
   </si>
   <si>
-    <t>Brasil</t>
+    <t>Tailandia</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Túnez</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Perú</t>
+    <t>Turquía</t>
   </si>
   <si>
     <t>Uruguay</t>
@@ -97,79 +200,13 @@
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Arabia Saudita</t>
-  </si>
-  <si>
-    <t>Corea Republicana</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Filipinas</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Japón</t>
-  </si>
-  <si>
-    <t>Malasia</t>
-  </si>
-  <si>
-    <t>Tailandia</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
-    <t>Dinamarca</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>Países Bajos</t>
-  </si>
-  <si>
-    <t>Polonia</t>
-  </si>
-  <si>
-    <t>Reino Unido</t>
-  </si>
-  <si>
-    <t>Turquía</t>
-  </si>
-  <si>
-    <t>República Federal de Alemania</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Irán</t>
+    <t>SUMA</t>
   </si>
   <si>
     <t>2024</t>
-  </si>
-  <si>
-    <t>(en Dólares)</t>
   </si>
   <si>
     <t>2023</t>
@@ -241,52 +278,34 @@
     <t>2001</t>
   </si>
   <si>
+    <t>anio</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>(en Dólares)</t>
+  </si>
+  <si>
+    <t>TOTAL PART</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
     <t>(en Kilos)</t>
   </si>
   <si>
-    <t>en dolares</t>
-  </si>
-  <si>
-    <t>en kilos</t>
-  </si>
-  <si>
-    <t>TOTAL PART</t>
+    <t>Comparación</t>
   </si>
   <si>
     <t>LISTA DE SOCIOS COMERCIALES QUE POSEEN UNA PARTICIPACION SUPERIOR AL 2%</t>
   </si>
   <si>
     <t>AÑOS CON UNA PARTICIPACION SUPERIOR AL 2%</t>
-  </si>
-  <si>
-    <t>Marruecos</t>
-  </si>
-  <si>
-    <t>Túnez</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Jordania</t>
-  </si>
-  <si>
-    <t>Paquistán</t>
-  </si>
-  <si>
-    <t>Grecia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Letonia</t>
-  </si>
-  <si>
-    <t>Rusia</t>
   </si>
   <si>
     <t>columna A</t>
@@ -298,20 +317,17 @@
     <t>Países que están presentes en una metodología y no en la otra.</t>
   </si>
   <si>
-    <t>Comparación</t>
+    <t>en dolares</t>
   </si>
   <si>
-    <t>SUMA</t>
-  </si>
-  <si>
-    <t>Francia</t>
+    <t>en kilos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,6 +519,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,156 +882,156 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:226" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:226" ht="18">
       <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="R1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="AN1" s="20" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="20" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="20" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AS1" s="20" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="20" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AU1" s="20" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:226">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>2.9076765792041367E-2</v>
@@ -1293,9 +1312,9 @@
       <c r="HM2" s="4"/>
       <c r="HN2" s="4"/>
     </row>
-    <row r="3" spans="1:226" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:226" ht="12.6" customHeight="1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4">
         <v>1.7359600990048945E-2</v>
@@ -1563,9 +1582,9 @@
       <c r="HD3" s="4"/>
       <c r="HE3" s="4"/>
     </row>
-    <row r="4" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:226">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4">
         <v>1.429222377945698E-2</v>
@@ -1835,9 +1854,9 @@
       <c r="HD4" s="4"/>
       <c r="HE4" s="4"/>
     </row>
-    <row r="5" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:226">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4">
         <v>1.4388868839936616E-2</v>
@@ -2110,9 +2129,9 @@
       <c r="HI5" s="4"/>
       <c r="HJ5" s="4"/>
     </row>
-    <row r="6" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:226">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>1.7567635037566278E-2</v>
@@ -2386,9 +2405,9 @@
       <c r="HL6" s="4"/>
       <c r="HM6" s="4"/>
     </row>
-    <row r="7" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:226">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4">
         <v>1.699026749041644E-2</v>
@@ -2660,9 +2679,9 @@
       <c r="HL7" s="4"/>
       <c r="HM7" s="4"/>
     </row>
-    <row r="8" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:226">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4">
         <v>1.4091964879548875E-2</v>
@@ -2765,9 +2784,9 @@
         <v>0.80213391049725891</v>
       </c>
     </row>
-    <row r="9" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:226">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4">
         <v>1.2446338674473378E-2</v>
@@ -3044,9 +3063,9 @@
       <c r="HQ9" s="4"/>
       <c r="HR9" s="4"/>
     </row>
-    <row r="10" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:226">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4">
         <v>3.7394556445103345E-2</v>
@@ -3318,9 +3337,9 @@
       <c r="HK10" s="4"/>
       <c r="HL10" s="4"/>
     </row>
-    <row r="11" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:226">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>4.2095963511355382E-2</v>
@@ -3591,9 +3610,9 @@
       <c r="HI11" s="4"/>
       <c r="HJ11" s="4"/>
     </row>
-    <row r="12" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:226">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4">
         <v>1.1922633846492801E-2</v>
@@ -3867,9 +3886,9 @@
       <c r="HH12" s="4"/>
       <c r="HI12" s="4"/>
     </row>
-    <row r="13" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:226">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>1.2952288794168203E-2</v>
@@ -4142,9 +4161,9 @@
       <c r="HE13" s="4"/>
       <c r="HF13" s="4"/>
     </row>
-    <row r="14" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:226">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4">
         <v>3.3166702899802877E-2</v>
@@ -4412,9 +4431,9 @@
       <c r="HG14" s="4"/>
       <c r="HH14" s="4"/>
     </row>
-    <row r="15" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:226">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4">
         <v>4.0167800324942791E-2</v>
@@ -4683,9 +4702,9 @@
       <c r="HH15" s="4"/>
       <c r="HI15" s="4"/>
     </row>
-    <row r="16" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:226">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C16" s="21">
         <v>3.1102379464113157E-2</v>
@@ -4953,9 +4972,9 @@
       <c r="HG16" s="21"/>
       <c r="HH16" s="21"/>
     </row>
-    <row r="17" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:219">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C17" s="21">
         <v>2.2373570127420053E-2</v>
@@ -5225,9 +5244,9 @@
       <c r="HG17" s="21"/>
       <c r="HH17" s="21"/>
     </row>
-    <row r="18" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:219">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C18" s="21">
         <v>2.056625102383915E-2</v>
@@ -5495,9 +5514,9 @@
       <c r="HE18" s="21"/>
       <c r="HF18" s="21"/>
     </row>
-    <row r="19" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:219">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" s="21">
         <v>2.3711526819143666E-2</v>
@@ -5767,9 +5786,9 @@
       <c r="HG19" s="21"/>
       <c r="HH19" s="21"/>
     </row>
-    <row r="20" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:219">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C20" s="21">
         <v>2.8700064505293683E-2</v>
@@ -6038,9 +6057,9 @@
       <c r="HD20" s="21"/>
       <c r="HE20" s="21"/>
     </row>
-    <row r="21" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:219">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" s="21">
         <v>2.7484733958080657E-2</v>
@@ -6305,9 +6324,9 @@
       <c r="HF21" s="21"/>
       <c r="HG21" s="21"/>
     </row>
-    <row r="22" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:219">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4">
         <v>2.5097682960764457E-2</v>
@@ -6575,9 +6594,9 @@
       <c r="HE22" s="4"/>
       <c r="HF22" s="4"/>
     </row>
-    <row r="23" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:219">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4">
         <v>1.6397837617082373E-2</v>
@@ -6844,9 +6863,9 @@
       <c r="HJ23" s="4"/>
       <c r="HK23" s="4"/>
     </row>
-    <row r="24" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:219">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4">
         <v>1.0615882727247566E-2</v>
@@ -7113,9 +7132,9 @@
       <c r="HH24" s="4"/>
       <c r="HI24" s="4"/>
     </row>
-    <row r="25" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:219">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4">
         <v>1.0150497324743468E-2</v>
@@ -7380,7 +7399,7 @@
       <c r="HF25" s="4"/>
       <c r="HG25" s="4"/>
     </row>
-    <row r="30" spans="1:219" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:219">
       <c r="B30" s="10"/>
     </row>
   </sheetData>
@@ -7395,120 +7414,120 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="5"/>
+    <col min="1" max="1" width="12.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="43.15">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
+    <row r="2" spans="1:32" s="1" customFormat="1">
+      <c r="A2" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>14741188821.190001</v>
@@ -7598,12 +7617,12 @@
         <v>121663035.8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>11632871228.190001</v>
@@ -7693,12 +7712,12 @@
         <v>110656862.29000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
+    <row r="4" spans="1:32" s="1" customFormat="1">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>19196644087.98</v>
@@ -7791,12 +7810,12 @@
         <v>240175397.19</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
+    <row r="5" spans="1:32" s="1" customFormat="1">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>17920340707</v>
@@ -7889,12 +7908,12 @@
         <v>227645680</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
+    <row r="6" spans="1:32" s="1" customFormat="1">
+      <c r="A6" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>11378190324</v>
@@ -7987,12 +8006,12 @@
         <v>94638672</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
+    <row r="7" spans="1:32" s="1" customFormat="1">
+      <c r="A7" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>14276570992</v>
@@ -8085,12 +8104,12 @@
         <v>419814629</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
+    <row r="8" spans="1:32" s="1" customFormat="1">
+      <c r="A8" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>13659627239.02</v>
@@ -8183,12 +8202,12 @@
         <v>215494042.88</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
+    <row r="9" spans="1:32" s="1" customFormat="1">
+      <c r="A9" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>13760730242</v>
@@ -8281,12 +8300,12 @@
         <v>280973107</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
+    <row r="10" spans="1:32" s="1" customFormat="1">
+      <c r="A10" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>13829380695</v>
@@ -8379,12 +8398,12 @@
         <v>226357870</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
+    <row r="11" spans="1:32" s="1" customFormat="1">
+      <c r="A11" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>13206825658</v>
@@ -8477,12 +8496,12 @@
         <v>385705579</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
+    <row r="12" spans="1:32" s="1" customFormat="1">
+      <c r="A12" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>16079051363</v>
@@ -8575,12 +8594,12 @@
         <v>581299946</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>50</v>
+    <row r="13" spans="1:32" s="1" customFormat="1">
+      <c r="A13" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>16794654401</v>
@@ -8673,12 +8692,12 @@
         <v>517420345</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
+    <row r="14" spans="1:32" s="1" customFormat="1">
+      <c r="A14" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>17931537295</v>
@@ -8771,12 +8790,12 @@
         <v>508973689</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
+    <row r="15" spans="1:32" s="1" customFormat="1">
+      <c r="A15" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>18852657175</v>
@@ -8869,12 +8888,12 @@
         <v>482742329</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>53</v>
+    <row r="16" spans="1:32" s="1" customFormat="1">
+      <c r="A16" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>15448056685</v>
@@ -8967,12 +8986,12 @@
         <v>709411755</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>54</v>
+    <row r="17" spans="1:42" s="1" customFormat="1">
+      <c r="A17" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>12287188927.1299</v>
@@ -9065,12 +9084,12 @@
         <v>338559342.82999903</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>55</v>
+    <row r="18" spans="1:42" s="1" customFormat="1">
+      <c r="A18" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>15243845942.8799</v>
@@ -9163,12 +9182,12 @@
         <v>333939865.85000002</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>56</v>
+    <row r="19" spans="1:42" s="1" customFormat="1">
+      <c r="A19" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>12567216153.26</v>
@@ -9261,12 +9280,12 @@
         <v>142004300.18000001</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>57</v>
+    <row r="20" spans="1:42" s="1" customFormat="1">
+      <c r="A20" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>8930927108.2900009</v>
@@ -9359,12 +9378,12 @@
         <v>1418.69</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>58</v>
+    <row r="21" spans="1:42" s="1" customFormat="1">
+      <c r="A21" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>7720431043.7799902</v>
@@ -9457,12 +9476,12 @@
         <v>46067.01</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>59</v>
+    <row r="22" spans="1:42" s="1" customFormat="1">
+      <c r="A22" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>7155724187</v>
@@ -9552,12 +9571,12 @@
         <v>106078762</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>60</v>
+    <row r="23" spans="1:42" s="1" customFormat="1">
+      <c r="A23" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>6265776098</v>
@@ -9650,12 +9669,12 @@
         <v>11233759</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>61</v>
+    <row r="24" spans="1:42" s="1" customFormat="1">
+      <c r="A24" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>4888209990</v>
@@ -9748,12 +9767,12 @@
         <v>105966932</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>62</v>
+    <row r="25" spans="1:42" s="1" customFormat="1">
+      <c r="A25" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>4332192955</v>
@@ -9854,28 +9873,29 @@
       <c r="AO25"/>
       <c r="AP25"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42">
       <c r="A26"/>
       <c r="W26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42">
+      <c r="A27" s="22"/>
       <c r="W27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42">
       <c r="A29"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42">
       <c r="A32"/>
     </row>
-    <row r="33" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="31:31">
       <c r="AE33" s="1"/>
     </row>
   </sheetData>
@@ -9889,120 +9909,120 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6"/>
+    <col min="1" max="1" width="12.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="43.15">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7">
         <f>SUM(D2:AF2)</f>
@@ -10125,12 +10145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C2:C25" si="0">SUM(D3:AF3)</f>
@@ -10253,12 +10273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -10381,12 +10401,12 @@
         <v>1.2511322087821908E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
@@ -10509,12 +10529,12 @@
         <v>1.2703200442560647E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" s="1" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
@@ -10637,12 +10657,12 @@
         <v>8.3175504456432566E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="13.9" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
@@ -10765,12 +10785,12 @@
         <v>2.9405844669230921E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -10893,12 +10913,12 @@
         <v>1.577598269039298E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
@@ -11021,12 +11041,12 @@
         <v>2.0418473588154799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
@@ -11149,12 +11169,12 @@
         <v>1.6367896364429355E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
@@ -11277,12 +11297,12 @@
         <v>2.9205017843660249E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
@@ -11405,12 +11425,12 @@
         <v>3.6152626972611533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" s="1" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
@@ -11533,12 +11553,12 @@
         <v>3.0808633071317704E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" s="1" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
@@ -11661,12 +11681,12 @@
         <v>2.8384275181019832E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" s="1" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
@@ -11789,12 +11809,12 @@
         <v>2.5606063088027271E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
@@ -11917,12 +11937,12 @@
         <v>4.5922394607008137E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" s="1" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
@@ -12045,12 +12065,12 @@
         <v>2.7553848552166874E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
@@ -12173,12 +12193,12 @@
         <v>2.1906536388605839E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="1" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
@@ -12301,12 +12321,12 @@
         <v>1.1299582854963736E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="1" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
@@ -12429,12 +12449,12 @@
         <v>1.5885136926972813E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" s="1" customFormat="1">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
@@ -12557,12 +12577,12 @@
         <v>5.9668961148372866E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="1" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
@@ -12685,12 +12705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="1" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
@@ -12813,12 +12833,12 @@
         <v>1.7928759062402105E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" s="1" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
@@ -12941,12 +12961,12 @@
         <v>2.1678064611950109E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33">
       <c r="A25" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
@@ -13069,129 +13089,129 @@
         <v>2.475185018622976E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33">
       <c r="C26">
         <f>COUNTIF(C2:C25,"&gt;0.8")</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:AF26" si="1">COUNTIF(D2:D25,"&gt;0.02")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33">
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -13223,7 +13243,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -13255,7 +13275,7 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33">
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -13287,7 +13307,7 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -13319,7 +13339,7 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33">
       <c r="A33"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -13352,7 +13372,7 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33">
       <c r="A34"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -13385,7 +13405,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33">
       <c r="A35"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -13418,7 +13438,7 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33">
       <c r="A36"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -13451,7 +13471,7 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33">
       <c r="A37"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -13484,7 +13504,7 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33">
       <c r="A38"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -13517,7 +13537,7 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33">
       <c r="A39"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -13550,7 +13570,7 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33">
       <c r="A40"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -13583,7 +13603,7 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33">
       <c r="A41"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -13616,7 +13636,7 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33">
       <c r="A42"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -13649,7 +13669,7 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33">
       <c r="A43"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -13682,7 +13702,7 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33">
       <c r="A44"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -13715,7 +13735,7 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33">
       <c r="A45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -13748,7 +13768,7 @@
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33">
       <c r="A46"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -13781,7 +13801,7 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -13813,7 +13833,7 @@
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33">
       <c r="A48"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -13846,7 +13866,7 @@
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33">
       <c r="A49"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -13879,7 +13899,7 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33">
       <c r="A50"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -13912,7 +13932,7 @@
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -13944,7 +13964,7 @@
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -13992,128 +14012,128 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="5"/>
-    <col min="3" max="36" width="12.6640625" style="1"/>
-    <col min="47" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="5"/>
+    <col min="3" max="36" width="12.7109375" style="1"/>
+    <col min="47" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="2" customFormat="1" ht="28.9">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
+    <row r="2" spans="1:46">
+      <c r="A2" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>27122804972.259899</v>
@@ -14219,12 +14239,12 @@
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
+    <row r="3" spans="1:46">
+      <c r="A3" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1">
         <v>17467878232.099899</v>
@@ -14330,12 +14350,12 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
+    <row r="4" spans="1:46">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1">
         <v>28893068451.93</v>
@@ -14444,12 +14464,12 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
+    <row r="5" spans="1:46">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>31828253608</v>
@@ -14558,12 +14578,12 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
+    <row r="6" spans="1:46">
+      <c r="A6" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>27336662291</v>
@@ -14672,12 +14692,12 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
+    <row r="7" spans="1:46">
+      <c r="A7" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1">
         <v>34746482719</v>
@@ -14786,12 +14806,12 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
+    <row r="8" spans="1:46">
+      <c r="A8" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>28231705197.4599</v>
@@ -14900,12 +14920,12 @@
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
+    <row r="9" spans="1:46">
+      <c r="A9" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>32478765441</v>
@@ -15014,12 +15034,12 @@
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
+    <row r="10" spans="1:46">
+      <c r="A10" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>32170096041</v>
@@ -15128,12 +15148,12 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
+    <row r="11" spans="1:46">
+      <c r="A11" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>29734481208</v>
@@ -15242,12 +15262,12 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
+    <row r="12" spans="1:46">
+      <c r="A12" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>26262936803.16</v>
@@ -15356,12 +15376,12 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>50</v>
+    <row r="13" spans="1:46">
+      <c r="A13" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1">
         <v>26601620964.240002</v>
@@ -15470,12 +15490,12 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
+    <row r="14" spans="1:46">
+      <c r="A14" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>28561926237.0499</v>
@@ -15584,12 +15604,12 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
+    <row r="15" spans="1:46">
+      <c r="A15" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1">
         <v>30838193290.16</v>
@@ -15698,12 +15718,12 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>53</v>
+    <row r="16" spans="1:46">
+      <c r="A16" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1">
         <v>31950609068.8699</v>
@@ -15812,12 +15832,12 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>54</v>
+    <row r="17" spans="1:46">
+      <c r="A17" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1">
         <v>24687893057.34</v>
@@ -15926,12 +15946,12 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>55</v>
+    <row r="18" spans="1:46">
+      <c r="A18" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1">
         <v>29962249941.169899</v>
@@ -16040,12 +16060,12 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>56</v>
+    <row r="19" spans="1:46">
+      <c r="A19" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1">
         <v>33765493091.939899</v>
@@ -16154,12 +16174,12 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>57</v>
+    <row r="20" spans="1:46">
+      <c r="A20" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1">
         <v>29688614750.2799</v>
@@ -16268,12 +16288,12 @@
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>58</v>
+    <row r="21" spans="1:46">
+      <c r="A21" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1">
         <v>26962405437.1199</v>
@@ -16382,12 +16402,12 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>59</v>
+    <row r="22" spans="1:46">
+      <c r="A22" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
         <v>23242105106.2999</v>
@@ -16493,12 +16513,12 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>60</v>
+    <row r="23" spans="1:46">
+      <c r="A23" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1">
         <v>23632375135.77</v>
@@ -16607,12 +16627,12 @@
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>61</v>
+    <row r="24" spans="1:46">
+      <c r="A24" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>20835780032.169899</v>
@@ -16721,12 +16741,12 @@
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:46">
+      <c r="A25" s="22">
         <v>2001</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1">
         <v>20128876156.709999</v>
@@ -16835,7 +16855,8 @@
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46">
+      <c r="A26" s="22"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -16847,7 +16868,8 @@
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46">
+      <c r="A27" s="22"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -16871,126 +16893,126 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6"/>
+    <col min="1" max="1" width="12.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="28.9">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C26" si="0">+SUM(D2:AH2)</f>
@@ -17121,12 +17143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="12.6" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
@@ -17257,12 +17279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -17393,12 +17415,12 @@
         <v>7.2865639771097744E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
@@ -17529,12 +17551,12 @@
         <v>1.0208101393233061E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" s="1" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
@@ -17665,12 +17687,12 @@
         <v>9.3223758733670045E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="1" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
@@ -17801,12 +17823,12 @@
         <v>2.8566773766060392E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -17937,12 +17959,12 @@
         <v>1.639993057385912E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
@@ -18073,12 +18095,12 @@
         <v>2.03722053167926E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
@@ -18209,12 +18231,12 @@
         <v>1.9223667228466763E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
@@ -18345,12 +18367,12 @@
         <v>2.809927168916624E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
@@ -18481,12 +18503,12 @@
         <v>4.3731838299279895E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="1" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
@@ -18617,12 +18639,12 @@
         <v>2.9056381162225232E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="1" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
@@ -18753,12 +18775,12 @@
         <v>2.5370146935679627E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" s="1" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
@@ -18889,12 +18911,12 @@
         <v>2.9960103611673203E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
@@ -19025,12 +19047,12 @@
         <v>5.8061719780091989E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" s="1" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
@@ -19161,12 +19183,12 @@
         <v>3.6036549870564663E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
@@ -19297,12 +19319,12 @@
         <v>2.7977651234334107E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" s="1" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
@@ -19433,12 +19455,12 @@
         <v>8.531359497272191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" s="1" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
@@ -19569,12 +19591,12 @@
         <v>1.6498950999233874E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" s="1" customFormat="1">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
@@ -19705,12 +19727,12 @@
         <v>3.6809735033270675E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" s="1" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
@@ -19841,12 +19863,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" s="1" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
@@ -19977,12 +19999,12 @@
         <v>1.3774316767987136E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" s="1" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
@@ -20113,12 +20135,12 @@
         <v>2.4345431998552967E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" s="1" customFormat="1">
       <c r="A25" s="6">
         <v>2001</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
@@ -20249,185 +20271,185 @@
         <v>2.8854770645820906E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34">
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f>COUNTIF(D2:D25,"&gt;0.02")</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:AH26" si="1">COUNTIF(E2:E25,"&gt;0.02")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48"/>
     </row>
   </sheetData>
@@ -20454,645 +20476,645 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" customWidth="1"/>
-    <col min="4" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="23"/>
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="H1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="43.9" thickTop="1">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" s="11"/>
-      <c r="M2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="M2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="D3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="25"/>
+    <row r="3" spans="1:15">
+      <c r="A3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="D3" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="H3" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>19</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>24</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I7" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>17</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>16</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>24</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>22</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>23</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>17</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>11</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>24</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>24</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>24</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="15" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>11</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="18" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5">
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5">
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>12</v>
